--- a/assets/data/INFORME_NDVI_IDW_2024.xlsx
+++ b/assets/data/INFORME_NDVI_IDW_2024.xlsx
@@ -46,6 +46,16 @@
     <sheet name="14jul2024" sheetId="37" state="visible" r:id="rId37"/>
     <sheet name="24jul2024" sheetId="38" state="visible" r:id="rId38"/>
     <sheet name="29jul2024" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="13ago2024" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="18ago2024" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="28ago2024" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="07sep2024" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="17sep2024" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="27sep2024" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="07oct2024" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="06nov2024" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="01dic2024" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="06dic2024" sheetId="49" state="visible" r:id="rId49"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5863,6 +5873,1596 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.789451</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-75.78859199999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-75.787733</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-75.78687499999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-75.786016</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.158183</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.678825</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.582274</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.717386</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.50865</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.539658</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.15884</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.641288</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.575894</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.606425</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.70364</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.636351</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6.159496</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.383698</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.489925</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.532335</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.274464</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.185588</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.160152</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.544981</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.511161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.381167</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.386192</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.252698</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.160809</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.497643</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.233669</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.098065</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.122525</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.226626</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.789451</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-75.78859199999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-75.787733</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-75.78687499999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-75.786016</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.158183</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.836306</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.842499</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8246289999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.734286</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.798992</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.15884</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.842732</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.799059</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.800112</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8757509999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.888396</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6.159496</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.641327</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.694769</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.857723</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.836387</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.86437</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.160152</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.408347</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.715867</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.795745</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.853288</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.853024</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.160809</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.572974</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.600651</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.432192</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.839241</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.854855</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.789451</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-75.78859199999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-75.787733</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-75.78687499999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-75.786016</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.158183</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.810267</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.824569</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.784507</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.750255</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.793996</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.15884</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.81756</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.757857</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7828889999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.817669</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8297099999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6.159496</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.655982</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7216630000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.748957</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.689625</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.77403</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.160152</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.378006</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.441944</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.578442</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.62829</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.664372</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.160809</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.442599</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.485891</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.513054</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.455648</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.616513</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.789451</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-75.78859199999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-75.787733</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-75.78687499999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-75.786016</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.158183</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.571776</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.504569</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.580918</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.601179</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.598778</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.15884</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5525369999999999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.534664</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.588049</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.625457</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.508289</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6.159496</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.448344</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.553038</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.643181</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5298890000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.477664</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.160152</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.297479</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.318093</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.401102</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.402525</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.383721</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.160809</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.290117</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.335131</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.24529</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.351891</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.334849</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.789451</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-75.78859199999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-75.787733</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-75.78687499999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-75.786016</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.158183</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.332344</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.444371</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.666125</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.534235</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.650665</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.15884</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.266506</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.312846</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.543911</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.534424</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.58569</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6.159496</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.138441</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.174021</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.339362</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.609684</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.673789</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.160152</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.113238</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.100323</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.131052</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.407819</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.44589</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.160809</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.106348</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.104761</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.14925</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.305466</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.480171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.789451</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-75.78859199999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-75.787733</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-75.78687499999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-75.786016</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.158183</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.248802</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.280775</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.794233</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.742666</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.768079</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.15884</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.408104</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.24019</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.459758</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.339934</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.251035</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6.159496</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.446145</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5524289999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.43315</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.513211</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.364099</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.160152</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.282069</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.426724</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.597322</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.504255</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.550265</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.160809</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.287089</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.386977</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.327999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5271479999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5464</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.789451</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-75.78859199999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-75.787733</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-75.78687499999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-75.786016</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.158183</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.722978</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.750905</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.807718</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.666007</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.822291</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.15884</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.672357</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5551700000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.738483</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.709282</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.84359</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6.159496</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.733101</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.844933</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.820468</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.819789</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.863882</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.160152</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.661188</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.698282</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.430184</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.80916</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.835206</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.160809</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.459913</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.509813</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.367092</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.803091</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.797718</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.789451</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-75.78859199999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-75.787733</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-75.78687499999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-75.786016</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.158183</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.542221</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5985009999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.511104</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.515978</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.521608</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.15884</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.52768</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.542862</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.574267</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.608051</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.56924</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6.159496</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.55119</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.59451</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.609869</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.567142</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.562524</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.160152</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.443498</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.560436</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.517288</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.569863</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.572787</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.160809</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.35236</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.430445</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.28425</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.527939</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.560182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.789451</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-75.78859199999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-75.787733</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-75.78687499999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-75.786016</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.158183</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.645795</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.708591</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.646139</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.699485</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.663508</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.15884</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.616777</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6327159999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.648003</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.698691</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.651721</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6.159496</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.593216</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.657847</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.60158</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.654257</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.632767</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.160152</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.435731</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.401079</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.396913</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.531126</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5700809999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.160809</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.313642</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.230652</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.188007</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.333429</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.452111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.789451</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-75.78859199999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-75.787733</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-75.78687499999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-75.786016</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.158183</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.668821</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.839144</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.773562</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.681629</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.653678</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.15884</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.310689</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7032929999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.771707</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.672831</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.513076</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6.159496</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.29084</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.628161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.777799</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.835392</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.849229</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.160152</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.100519</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.357051</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.524844</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.750101</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.799527</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.160809</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.212641</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.324983</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.36815</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.673022</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.796533</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
